--- a/public/product.xlsx
+++ b/public/product.xlsx
@@ -438,8 +438,8 @@
       <c r="A2" t="str">
         <v>resistance 100 e</v>
       </c>
-      <c r="B2">
-        <v>0.08</v>
+      <c r="B2" t="str">
+        <v>0.09</v>
       </c>
       <c r="C2" t="str">
         <v>No</v>

--- a/public/product.xlsx
+++ b/public/product.xlsx
@@ -445,7 +445,7 @@
         <v>No</v>
       </c>
       <c r="D2" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">

--- a/public/product.xlsx
+++ b/public/product.xlsx
@@ -447,6 +447,9 @@
       <c r="D2" t="str">
         <v>2</v>
       </c>
+      <c r="E2" t="str">
+        <v>40</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3">

--- a/public/product.xlsx
+++ b/public/product.xlsx
@@ -448,7 +448,7 @@
         <v>2</v>
       </c>
       <c r="E2" t="str">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">

--- a/public/product.xlsx
+++ b/public/product.xlsx
@@ -448,7 +448,7 @@
         <v>2</v>
       </c>
       <c r="E2" t="str">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">

--- a/public/product.xlsx
+++ b/public/product.xlsx
@@ -475,6 +475,9 @@
       <c r="C4" t="str">
         <v>Yes</v>
       </c>
+      <c r="D4" t="str">
+        <v>60</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
